--- a/DP-Deployment-steps.xlsx
+++ b/DP-Deployment-steps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ejadasharepoint-my.sharepoint.com/personal/prasad_gj_ejada_com/Documents/Desktop/DataPower-Release-Documents-Generate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1210" documentId="14_{8935B6EE-78AB-4C21-B393-CBADE56FC40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B2C1B33-8B20-4D88-BC19-39017B4BDB4A}"/>
+  <xr:revisionPtr revIDLastSave="1239" documentId="14_{8935B6EE-78AB-4C21-B393-CBADE56FC40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F63D3B45-8C08-4134-94DF-27D508CA49A3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{EA545CCB-2B2D-4382-8B3C-7F336992AB00}"/>
   </bookViews>
@@ -17,9 +17,9 @@
     <sheet name="poc" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'08-12-2025'!$A$1:$M$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'08-12-2025'!$A$1:$M$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">poc!$A$1:$M$6</definedName>
-    <definedName name="_Hlk210314008" localSheetId="0">'08-12-2025'!$B$16</definedName>
+    <definedName name="_Hlk210314008" localSheetId="0">'08-12-2025'!$B$15</definedName>
     <definedName name="_Hlk210314008" localSheetId="1">poc!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="100">
   <si>
     <t>CR</t>
   </si>
@@ -276,33 +276,6 @@
     </r>
   </si>
   <si>
-    <t>DWP-CONSUMER-API-GW-EXT-02</t>
-  </si>
-  <si>
-    <r>
-      <t>0168_WLTPRD000177-ALL-DPProd-08-12-2025/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>WLTMP0000033-UPDATE-PC-PayrollFirstLoginEnhancemen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF4472C4"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>/delta/DWP-CONSUMER-API-GW-EXT-02  /local/SDR/OTP_Token_Configurations.json</t>
-    </r>
-  </si>
-  <si>
     <t>WLTPC0000062-NEW-EH-Bracelets</t>
   </si>
   <si>
@@ -449,6 +422,9 @@
   </si>
   <si>
     <t>Services</t>
+  </si>
+  <si>
+    <t>dm:MAPPING</t>
   </si>
 </sst>
 </file>
@@ -962,12 +938,966 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E35ECB3-9DE5-4948-B197-7F3540929B9C}">
-  <dimension ref="A1:M35"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="C14:J14"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="22" style="12" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="12"/>
+    <col min="10" max="10" width="14.6640625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="17.77734375" style="13" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" style="13" customWidth="1"/>
+    <col min="13" max="13" width="17.77734375" style="14" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" ht="86.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" ht="86.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" ht="60.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="403.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="15"/>
+      <c r="K15" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="15"/>
+      <c r="K16" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="104.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="129.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:M34" xr:uid="{0E35ECB3-9DE5-4948-B197-7F3540929B9C}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="SDR"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6105554-4075-4D3F-8E7B-52649F47F2DE}">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1029,12 +1959,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>39</v>
@@ -1057,7 +1987,9 @@
       <c r="I2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="8"/>
@@ -1067,7 +1999,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>39</v>
@@ -1084,14 +2016,14 @@
       <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>11</v>
+      <c r="H3" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -1102,10 +2034,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>51</v>
@@ -1134,8 +2066,8 @@
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>97</v>
+      <c r="B5" s="10" t="s">
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>54</v>
@@ -1159,8 +2091,8 @@
       <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>2</v>
+      <c r="B6" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>54</v>
@@ -1180,989 +2112,18 @@
       </c>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="403.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="144" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="15"/>
-      <c r="K16" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="15"/>
-      <c r="K17" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="L17" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="L21" s="16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="104.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="M23" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="118.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K28" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="L28" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K30" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="L30" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K34" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="L34" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="L35" s="16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:M17" xr:uid="{0E35ECB3-9DE5-4948-B197-7F3540929B9C}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6105554-4075-4D3F-8E7B-52649F47F2DE}">
-  <dimension ref="A1:M8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="22" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" style="12" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="12"/>
-    <col min="10" max="10" width="14.6640625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="17.77734375" style="13" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" style="13" customWidth="1"/>
-    <col min="13" max="13" width="17.77734375" style="14" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="8"/>
-    </row>
-    <row r="3" spans="1:13" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="1:13" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:13" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="8"/>
-    </row>
     <row r="7" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>61</v>
@@ -2187,13 +2148,13 @@
         <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>61</v>
